--- a/5 - Metrics/1W32B1R_net_cpu.xlsx
+++ b/5 - Metrics/1W32B1R_net_cpu.xlsx
@@ -2847,8 +2847,8 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="-395200720"/>
-        <c:axId val="-395206160"/>
+        <c:axId val="-1897356960"/>
+        <c:axId val="-1897356416"/>
       </c:lineChart>
       <c:lineChart>
         <c:grouping val="standard"/>
@@ -7167,11 +7167,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="-384654800"/>
-        <c:axId val="-384656432"/>
+        <c:axId val="-1679208864"/>
+        <c:axId val="-1897699376"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="-395200720"/>
+        <c:axId val="-1897356960"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -7213,7 +7213,7 @@
             <a:endParaRPr lang="de-DE"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-395206160"/>
+        <c:crossAx val="-1897356416"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -7221,9 +7221,10 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="-395206160"/>
+        <c:axId val="-1897356416"/>
         <c:scaling>
           <c:orientation val="minMax"/>
+          <c:max val="100"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="l"/>
@@ -7272,12 +7273,12 @@
             <a:endParaRPr lang="de-DE"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-395200720"/>
+        <c:crossAx val="-1897356960"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="-384656432"/>
+        <c:axId val="-1897699376"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -7314,12 +7315,12 @@
             <a:endParaRPr lang="de-DE"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-384654800"/>
+        <c:crossAx val="-1679208864"/>
         <c:crosses val="max"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:catAx>
-        <c:axId val="-384654800"/>
+        <c:axId val="-1679208864"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -7328,7 +7329,8 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="-384656432"/>
+        <c:crossAx val="-1897699376"/>
+        <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
